--- a/DateBase/orders/Nha Thu_2025-10-12.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-12.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>548_白星花_tweedia white_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015171055203410253210155152010300</v>
+        <v>015171055203410253210155152010303</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-12.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-12.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,12 +610,184 @@
         <v>548_白星花_tweedia white_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>3</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>5</v>
+      </c>
+      <c r="C23" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>6</v>
+      </c>
+      <c r="C27" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>72_泽娜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +845,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015171055203410253210155152010303</v>
+        <v>0151710552034102532101551520103030105105156443015152020192020121430200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-12.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-12.xlsx
@@ -784,6 +784,9 @@
       <c r="C41" t="str">
         <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -845,7 +848,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151710552034102532101551520103030105105156443015152020192020121430200</v>
+        <v>01517105520341025321015515201030301051051564430151520201920201214302011</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-12.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-12.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -788,9 +788,52 @@
         <v>11</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>85_摩洛哥_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>4</v>
+      </c>
+      <c r="C43" t="str">
+        <v>67_丘比特_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L46"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -848,7 +891,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01517105520341025321015515201030301051051564430151520201920201214302011</v>
+        <v>01517105520341025321015515201030301051051564430151520201920201214302011715202020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-12.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-12.xlsx
@@ -893,6 +893,9 @@
       <c r="G2" t="str">
         <v>01517105520341025321015515201030301051051564430151520201920201214302011715202020</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
